--- a/整合包模组列表.xlsx
+++ b/整合包模组列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL_jiana\Desktop\Extreme-hardcore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F072461B-9A45-4B9F-A177-97C61874D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1C263-75A9-4E12-AB0B-91484673DE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="431">
   <si>
     <t>辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,17 +671,6 @@
   </si>
   <si>
     <t>https://www.mcmod.cn/class/4192.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvMove</t>
-  </si>
-  <si>
-    <t>https://www.mcmod.cn/class/2809.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InvMove。顾名思义，你可以在打开物品栏、箱子等几乎所有GUI界面时继续保持对身体的移动操控</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1721,6 +1710,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1745,7 +1735,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2032,10 +2021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2054,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2082,20 +2071,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="15" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2110,52 +2099,52 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A6" s="22"/>
+      <c r="B6" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>391</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2170,7 +2159,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
@@ -2185,7 +2174,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2198,7 +2187,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A11" s="21"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="3" t="s">
         <v>71</v>
       </c>
@@ -2211,7 +2200,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
@@ -2224,7 +2213,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
@@ -2237,20 +2226,20 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
@@ -2265,22 +2254,22 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="17" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="3" t="s">
         <v>101</v>
       </c>
@@ -2295,20 +2284,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3" t="s">
         <v>124</v>
       </c>
@@ -2321,37 +2310,37 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="21" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A22" s="21"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
         <v>88</v>
       </c>
@@ -2366,48 +2355,48 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A24" s="21"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A25" s="21"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>292</v>
-      </c>
     </row>
     <row r="26" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="3" t="s">
         <v>120</v>
       </c>
@@ -2422,7 +2411,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A27" s="21"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="3" t="s">
         <v>152</v>
       </c>
@@ -2437,7 +2426,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A28" s="21"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="3" t="s">
         <v>179</v>
       </c>
@@ -2450,1197 +2439,1197 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>310</v>
+      </c>
       <c r="D29" s="6" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>190</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A30" s="21"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>313</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>315</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="3" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A32" s="21"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="6" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>191</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="D33" s="6" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="3" t="s">
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A35" s="22"/>
+      <c r="B35" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A35" s="21"/>
-      <c r="B35" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>405</v>
-      </c>
     </row>
     <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="6" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A37" s="21"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="3" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A38" s="21"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="3" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A39" s="21"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="3" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A40" s="21"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D40" s="6" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>184</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A41" s="21"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A42" s="21"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>223</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>225</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A43" s="21"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>373</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>374</v>
+      </c>
       <c r="D43" s="6" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A44" s="21"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="6" t="s">
-        <v>378</v>
+        <v>242</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>379</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A45" s="21"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A46" s="22"/>
+      <c r="B46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A47" s="22"/>
+      <c r="B47" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A46" s="21"/>
-      <c r="B46" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A47" s="21"/>
-      <c r="B47" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="8" t="s">
-        <v>246</v>
+      <c r="A48" s="22"/>
+      <c r="B48" s="3" t="s">
+        <v>381</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>248</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
-      <c r="B49" s="3" t="s">
-        <v>384</v>
+      <c r="A49" s="22"/>
+      <c r="B49" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>385</v>
+        <v>279</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A50" s="21"/>
-      <c r="B50" s="8" t="s">
-        <v>281</v>
+      <c r="A50" s="22"/>
+      <c r="B50" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>426</v>
+        <v>267</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A51" s="21"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C51" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D51" s="6" t="s">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>269</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A52" s="21"/>
+      <c r="A52" s="23" t="s">
+        <v>16</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>15</v>
+      <c r="A53" s="23"/>
+      <c r="B53" s="15" t="s">
+        <v>420</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>17</v>
+      <c r="D53" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A54" s="22"/>
-      <c r="B54" s="15" t="s">
-        <v>423</v>
+      <c r="A54" s="23"/>
+      <c r="B54" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>425</v>
+      <c r="D54" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A55" s="22"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A56" s="23"/>
+      <c r="B56" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="6" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A56" s="22"/>
-      <c r="B56" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="16" t="s">
-        <v>419</v>
-      </c>
       <c r="E56" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A57" s="22"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>402</v>
+        <v>228</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A58" s="22"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="3" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="6" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A59" s="22"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A60" s="22"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>301</v>
+        <v>231</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A61" s="22"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>233</v>
+        <v>128</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A62" s="22"/>
-      <c r="B62" s="3" t="s">
-        <v>127</v>
+      <c r="A62" s="23"/>
+      <c r="B62" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A63" s="22"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="23"/>
       <c r="B63" s="10" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="22"/>
-      <c r="B64" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A64" s="23"/>
+      <c r="B64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D64" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>175</v>
+        <v>29</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A65" s="22"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A66" s="22"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="3" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>178</v>
+        <v>406</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A67" s="22"/>
+      <c r="A67" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="B67" s="3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="6" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>409</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A68" s="23" t="s">
-        <v>64</v>
-      </c>
+      <c r="A68" s="24"/>
       <c r="B68" s="3" t="s">
-        <v>65</v>
+        <v>336</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="6" t="s">
-        <v>66</v>
+        <v>337</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A69" s="23"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="D69" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="B70" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>343</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C70" s="3"/>
       <c r="D70" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>345</v>
+        <v>62</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A71" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="A71" s="25"/>
       <c r="B71" s="3" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>63</v>
+        <v>161</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A72" s="24"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="3"/>
+        <v>313</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="D72" s="6" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A73" s="24"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="3" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A74" s="24"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>347</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="6" t="s">
-        <v>348</v>
+        <v>168</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A75" s="24"/>
-      <c r="B75" s="3" t="s">
-        <v>167</v>
+      <c r="A75" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="6" t="s">
-        <v>168</v>
+        <v>37</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A76" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>36</v>
+      <c r="A76" s="26"/>
+      <c r="B76" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="E76" s="18" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A77" s="25"/>
-      <c r="B77" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>416</v>
+      <c r="A77" s="26"/>
+      <c r="B77" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A78" s="25"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="10" t="s">
-        <v>116</v>
+        <v>369</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>117</v>
+        <v>370</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>119</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A79" s="25"/>
-      <c r="B79" s="10" t="s">
-        <v>372</v>
+      <c r="A79" s="26"/>
+      <c r="B79" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>375</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A80" s="25"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="3" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>274</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A81" s="25"/>
+      <c r="A81" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="B81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C81" s="3"/>
       <c r="D81" s="6" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A82" s="18" t="s">
-        <v>108</v>
-      </c>
+      <c r="A82" s="19"/>
       <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="3"/>
+        <v>325</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>326</v>
+      </c>
       <c r="D82" s="6" t="s">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A83" s="18"/>
+      <c r="A83" s="19"/>
       <c r="B83" s="3" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A84" s="18"/>
-      <c r="B84" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="A84" s="19"/>
+      <c r="B84" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C84" s="3"/>
       <c r="D84" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>371</v>
+        <v>277</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="7" t="s">
-        <v>278</v>
+      <c r="A85" s="19"/>
+      <c r="B85" s="12" t="s">
+        <v>407</v>
       </c>
       <c r="C85" s="3"/>
-      <c r="D85" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>279</v>
+      <c r="D85" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="12" t="s">
-        <v>410</v>
+      <c r="A86" s="19"/>
+      <c r="B86" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="13" t="s">
-        <v>411</v>
+      <c r="D86" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>412</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" s="3"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D87" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A88" s="18"/>
+      <c r="A88" s="19"/>
       <c r="B88" s="10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A89" s="18"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="10" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="10" t="s">
-        <v>335</v>
+      <c r="A90" s="19"/>
+      <c r="B90" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>337</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A91" s="18"/>
+      <c r="A91" s="19"/>
       <c r="B91" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="6" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A92" s="18"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="3" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="6" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C93" s="3"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="D93" s="6" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A94" s="18"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C94" s="3"/>
       <c r="D94" s="6" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A95" s="18"/>
+      <c r="A95" s="19"/>
       <c r="B95" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C95" s="3"/>
+        <v>317</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="D95" s="6" t="s">
-        <v>236</v>
+        <v>319</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A96" s="18"/>
+      <c r="A96" s="19"/>
       <c r="B96" s="10" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>321</v>
+        <v>260</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>323</v>
+        <v>259</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A97" s="18"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="10" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A98" s="18"/>
+      <c r="A98" s="19"/>
       <c r="B98" s="10" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E98" s="11" t="s">
-        <v>311</v>
+        <v>209</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A99" s="18"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="10" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>211</v>
+        <v>359</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>212</v>
+        <v>360</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>213</v>
+        <v>405</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A100" s="18"/>
-      <c r="B100" s="10" t="s">
-        <v>361</v>
+      <c r="A100" s="19"/>
+      <c r="B100" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>363</v>
+        <v>148</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A101" s="18"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C101" s="3"/>
       <c r="D101" s="6" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>433</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A102" s="18"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="6" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A103" s="18"/>
+      <c r="A103" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="B103" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A104" s="19" t="s">
-        <v>23</v>
-      </c>
+      <c r="A104" s="20"/>
       <c r="B104" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="6" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>26</v>
+        <v>429</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>432</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="6" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>431</v>
+        <v>95</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>96</v>
+        <v>427</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="3" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="6" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="3" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="6" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>428</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="3" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="6" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="3" t="s">
         <v>201</v>
       </c>
@@ -3653,7 +3642,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="3" t="s">
         <v>204</v>
       </c>
@@ -3666,59 +3655,59 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="3" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="6" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>239</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="6" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>427</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="3" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="6" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="3" t="s">
         <v>283</v>
       </c>
@@ -3731,214 +3720,200 @@
       </c>
     </row>
     <row r="122" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="6" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>288</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="C123" s="3"/>
+        <v>321</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="D123" s="6" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>407</v>
+        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A124" s="19"/>
+      <c r="A124" s="21" t="s">
+        <v>347</v>
+      </c>
       <c r="B124" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>325</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C124" s="3"/>
       <c r="D124" s="6" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A125" s="20" t="s">
-        <v>350</v>
-      </c>
+      <c r="A125" s="21"/>
       <c r="B125" s="3" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="6" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A126" s="20"/>
-      <c r="B126" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A82:A103"/>
-    <mergeCell ref="A104:A124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="A2:A52"/>
-    <mergeCell ref="A53:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A81:A102"/>
+    <mergeCell ref="A103:A123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A2:A51"/>
+    <mergeCell ref="A52:A66"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="A75:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{9F0B732F-C4C6-4819-8804-EE11D41FF89F}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{ADA8DB44-D8E7-49F1-8277-BB0082D61673}"/>
-    <hyperlink ref="D103" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
-    <hyperlink ref="D53" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
+    <hyperlink ref="D102" r:id="rId3" xr:uid="{890BCAC2-190A-4FB1-8F2E-1EEB752BE0E9}"/>
+    <hyperlink ref="D52" r:id="rId4" xr:uid="{4805E29B-CA2B-4FB8-AD24-2F3B5DFD6CC0}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{02016886-64AF-4452-B2BC-B8A5AB116764}"/>
-    <hyperlink ref="D65" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
-    <hyperlink ref="D76" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
-    <hyperlink ref="D52" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
-    <hyperlink ref="D104" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
+    <hyperlink ref="D64" r:id="rId6" xr:uid="{CAA578AB-22FD-43C2-BBB7-45742B8170F3}"/>
+    <hyperlink ref="D75" r:id="rId7" xr:uid="{211A0D31-5631-45C5-805D-B10E12147EBC}"/>
+    <hyperlink ref="D51" r:id="rId8" xr:uid="{5997DB72-E1B6-4909-BB89-2E2A735643FB}"/>
+    <hyperlink ref="D103" r:id="rId9" xr:uid="{6B46474E-817A-48E9-B70F-8D132941B889}"/>
     <hyperlink ref="D10" r:id="rId10" xr:uid="{753A97A6-6A3E-4C85-BEA9-58D0E97443A2}"/>
     <hyperlink ref="D9" r:id="rId11" xr:uid="{D63BB1B4-4C56-4235-B2E2-7EBAC9C94B0A}"/>
     <hyperlink ref="D12" r:id="rId12" xr:uid="{C2D49331-0CEE-4707-8909-DA496BC8D03A}"/>
-    <hyperlink ref="D31" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
-    <hyperlink ref="D105" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{DE67B92D-D01A-4478-9779-424F939C2CDF}"/>
+    <hyperlink ref="D104" r:id="rId14" xr:uid="{8FCF8224-8383-436E-9E68-1139BDD6F901}"/>
     <hyperlink ref="D13" r:id="rId15" xr:uid="{2F278EF2-BC5E-4C43-97F2-D4B99C6FD2EA}"/>
-    <hyperlink ref="D71" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
-    <hyperlink ref="D68" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
-    <hyperlink ref="D106" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
+    <hyperlink ref="D70" r:id="rId16" xr:uid="{9C12B551-EC47-40EC-8814-59EC7D38C66A}"/>
+    <hyperlink ref="D67" r:id="rId17" xr:uid="{B22DB66F-3124-418E-840A-140166B00E05}"/>
+    <hyperlink ref="D105" r:id="rId18" xr:uid="{C83A5ADA-A43C-47DC-BA8E-B579A3EF0EF1}"/>
     <hyperlink ref="D11" r:id="rId19" xr:uid="{5A3C7E97-CF9A-45E5-9192-B72AF70DBF02}"/>
     <hyperlink ref="D15" r:id="rId20" xr:uid="{FB9C3F1C-0A1E-4159-92FD-3A0539235044}"/>
-    <hyperlink ref="D107" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
-    <hyperlink ref="D81" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
-    <hyperlink ref="D108" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
+    <hyperlink ref="D106" r:id="rId21" xr:uid="{B9F0F1EF-C2E6-4BA3-AEDE-FD2EEC48C1A2}"/>
+    <hyperlink ref="D80" r:id="rId22" xr:uid="{3FC3E38D-D1F9-49F6-B1B9-00836C90FBAB}"/>
+    <hyperlink ref="D107" r:id="rId23" xr:uid="{19891EEF-9D56-442D-8A24-E24E0A84CFA2}"/>
     <hyperlink ref="D22" r:id="rId24" xr:uid="{E900C6E9-78DF-41BD-8804-1AB2C7EB8F99}"/>
-    <hyperlink ref="D109" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
-    <hyperlink ref="E109" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
-    <hyperlink ref="D110" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
-    <hyperlink ref="D111" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
-    <hyperlink ref="D67" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
+    <hyperlink ref="D108" r:id="rId25" xr:uid="{D2DF4144-C530-496E-9AC0-7636FF68A32C}"/>
+    <hyperlink ref="E108" r:id="rId26" tooltip="Corgi_Taco" display="https://www.mcmod.cn/author/22729.html" xr:uid="{16E0C2FC-7E20-4B7C-9702-4F46B4395EE1}"/>
+    <hyperlink ref="D109" r:id="rId27" xr:uid="{18C099D3-60B9-4493-AD28-8F8F66867DB2}"/>
+    <hyperlink ref="D110" r:id="rId28" xr:uid="{2AF7C703-50FF-410C-8189-77343B0B5B76}"/>
+    <hyperlink ref="D66" r:id="rId29" xr:uid="{99044963-9799-4B9A-9BA8-31E1F28D80CC}"/>
     <hyperlink ref="D17" r:id="rId30" xr:uid="{93F39D2B-B625-48C4-94FB-56AB1DB43D17}"/>
-    <hyperlink ref="D63" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
-    <hyperlink ref="D82" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
-    <hyperlink ref="D41" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
-    <hyperlink ref="D78" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
+    <hyperlink ref="D62" r:id="rId31" xr:uid="{384CBC50-D14A-42E1-941B-A070A969415D}"/>
+    <hyperlink ref="D81" r:id="rId32" xr:uid="{A143AC3C-8C8D-44F4-89F3-5185392310D1}"/>
+    <hyperlink ref="D40" r:id="rId33" xr:uid="{A07C5967-1A04-4B7C-89E4-FCB9E6E80BE4}"/>
+    <hyperlink ref="D77" r:id="rId34" xr:uid="{6E6598F0-DC06-4323-AB64-5FBE360BF10A}"/>
     <hyperlink ref="D26" r:id="rId35" xr:uid="{F7731534-24B6-49A7-82A2-2922DEBAF03F}"/>
     <hyperlink ref="D19" r:id="rId36" xr:uid="{624A22C9-0378-4D64-943F-5318E4130BA3}"/>
-    <hyperlink ref="D62" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
-    <hyperlink ref="D87" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
-    <hyperlink ref="D88" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
-    <hyperlink ref="D89" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
-    <hyperlink ref="D102" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
-    <hyperlink ref="D91" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
-    <hyperlink ref="D101" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
-    <hyperlink ref="D37" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
+    <hyperlink ref="D61" r:id="rId37" xr:uid="{0580064B-6B14-4462-BF50-EE6619422CCC}"/>
+    <hyperlink ref="D86" r:id="rId38" xr:uid="{425EF280-C0CC-4147-8656-7C5A22064A74}"/>
+    <hyperlink ref="D87" r:id="rId39" xr:uid="{1157FF70-65AA-4C8D-A8A1-1C4C145F46C4}"/>
+    <hyperlink ref="D88" r:id="rId40" xr:uid="{866417E5-DEB4-4FC3-9FC0-2F5AA8EB31F5}"/>
+    <hyperlink ref="D101" r:id="rId41" xr:uid="{EE0334A3-17E8-409A-98F4-FFCC3B5CD99D}"/>
+    <hyperlink ref="D90" r:id="rId42" xr:uid="{DDDFB175-A297-4D59-921A-551971D13CA4}"/>
+    <hyperlink ref="D100" r:id="rId43" xr:uid="{E796D694-1482-42E6-8631-590789EAE243}"/>
+    <hyperlink ref="D36" r:id="rId44" xr:uid="{224EF1E9-27A0-4483-99C3-9DFA4038F8B0}"/>
     <hyperlink ref="D27" r:id="rId45" xr:uid="{61BEB2AE-0CEA-4633-B05E-949AF71664C6}"/>
-    <hyperlink ref="D112" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
-    <hyperlink ref="D113" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
-    <hyperlink ref="D72" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
-    <hyperlink ref="D94" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
-    <hyperlink ref="D75" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
-    <hyperlink ref="D32" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
-    <hyperlink ref="D64" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
-    <hyperlink ref="D66" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
+    <hyperlink ref="D111" r:id="rId46" xr:uid="{5E60B799-D374-4F9D-8EE7-8DA10F5A30B0}"/>
+    <hyperlink ref="D112" r:id="rId47" xr:uid="{7C7879B3-8951-4C56-98C3-CD85D1CA3179}"/>
+    <hyperlink ref="D71" r:id="rId48" xr:uid="{1DA13413-3CFE-4636-A81A-029CC8A099D9}"/>
+    <hyperlink ref="D93" r:id="rId49" xr:uid="{CF750614-5988-4EB4-ACC1-5C4F27F8663C}"/>
+    <hyperlink ref="D74" r:id="rId50" xr:uid="{1E103EA7-8C88-4BA6-A88C-951EFE90C62C}"/>
+    <hyperlink ref="D31" r:id="rId51" xr:uid="{9540B09C-077D-4DBB-9D50-EA49C23DB046}"/>
+    <hyperlink ref="D63" r:id="rId52" xr:uid="{3E0D4AF6-451D-45C2-9CA9-2E5599015BE8}"/>
+    <hyperlink ref="D65" r:id="rId53" xr:uid="{CF3E0631-F978-4388-98C8-74D5DE12713A}"/>
     <hyperlink ref="D28" r:id="rId54" xr:uid="{5F13CD49-966F-4E25-B17B-529C829BAB9B}"/>
-    <hyperlink ref="D114" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
-    <hyperlink ref="D29" r:id="rId56" xr:uid="{BB5B529B-D827-439C-BC1C-65CD07EA8359}"/>
-    <hyperlink ref="D21" r:id="rId57" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
-    <hyperlink ref="D34" r:id="rId58" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
-    <hyperlink ref="D36" r:id="rId59" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
-    <hyperlink ref="D115" r:id="rId60" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
-    <hyperlink ref="D116" r:id="rId61" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
-    <hyperlink ref="D117" r:id="rId62" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
-    <hyperlink ref="D99" r:id="rId63" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
-    <hyperlink ref="D55" r:id="rId64" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
-    <hyperlink ref="D57" r:id="rId65" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
-    <hyperlink ref="D93" r:id="rId66" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
-    <hyperlink ref="D42" r:id="rId67" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
-    <hyperlink ref="D33" r:id="rId68" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
-    <hyperlink ref="D58" r:id="rId69" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
-    <hyperlink ref="D61" r:id="rId70" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
-    <hyperlink ref="D95" r:id="rId71" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
-    <hyperlink ref="D118" r:id="rId72" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
-    <hyperlink ref="D119" r:id="rId73" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
-    <hyperlink ref="D45" r:id="rId74" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
-    <hyperlink ref="D92" r:id="rId75" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
-    <hyperlink ref="D120" r:id="rId76" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
-    <hyperlink ref="D59" r:id="rId77" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
-    <hyperlink ref="D35" r:id="rId78" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
-    <hyperlink ref="D97" r:id="rId79" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
-    <hyperlink ref="D38" r:id="rId80" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
-    <hyperlink ref="D51" r:id="rId81" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
-    <hyperlink ref="D80" r:id="rId82" xr:uid="{708DBE68-0007-4325-85E5-705BA65B4179}"/>
-    <hyperlink ref="D47" r:id="rId83" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
-    <hyperlink ref="D50" r:id="rId85" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
-    <hyperlink ref="E50" r:id="rId86" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
-    <hyperlink ref="D121" r:id="rId87" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
-    <hyperlink ref="D122" r:id="rId88" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
-    <hyperlink ref="D25" r:id="rId89" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
-    <hyperlink ref="D24" r:id="rId90" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
-    <hyperlink ref="D20" r:id="rId91" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
-    <hyperlink ref="D60" r:id="rId92" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
-    <hyperlink ref="D39" r:id="rId93" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
-    <hyperlink ref="D123" r:id="rId94" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
-    <hyperlink ref="D98" r:id="rId95" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
-    <hyperlink ref="D30" r:id="rId96" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
-    <hyperlink ref="D73" r:id="rId97" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
-    <hyperlink ref="D96" r:id="rId98" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
-    <hyperlink ref="D124" r:id="rId99" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
-    <hyperlink ref="D83" r:id="rId100" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
-    <hyperlink ref="D23" r:id="rId101" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
-    <hyperlink ref="D90" r:id="rId102" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
-    <hyperlink ref="D69" r:id="rId103" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
-    <hyperlink ref="D70" r:id="rId104" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
-    <hyperlink ref="D74" r:id="rId105" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
-    <hyperlink ref="D125" r:id="rId106" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
-    <hyperlink ref="D7" r:id="rId107" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
-    <hyperlink ref="D14" r:id="rId108" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
-    <hyperlink ref="D100" r:id="rId109" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
-    <hyperlink ref="D46" r:id="rId110" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
-    <hyperlink ref="D84" r:id="rId111" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
-    <hyperlink ref="D79" r:id="rId112" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
-    <hyperlink ref="D44" r:id="rId113" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
-    <hyperlink ref="D43" r:id="rId114" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
-    <hyperlink ref="D49" r:id="rId115" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
-    <hyperlink ref="D5" r:id="rId116" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
-    <hyperlink ref="D6" r:id="rId117" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
-    <hyperlink ref="D18" r:id="rId118" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
-    <hyperlink ref="D16" r:id="rId119" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
-    <hyperlink ref="D126" r:id="rId120" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
-    <hyperlink ref="D86" r:id="rId121" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
-    <hyperlink ref="D77" r:id="rId122" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
-    <hyperlink ref="D56" r:id="rId123" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
-    <hyperlink ref="D3" r:id="rId124" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
-    <hyperlink ref="D54" r:id="rId125" xr:uid="{220DAA3B-F967-4F97-AE24-9C112849C404}"/>
+    <hyperlink ref="D113" r:id="rId55" xr:uid="{469CF9BB-F716-4388-9AD9-EF15C3DD8ADE}"/>
+    <hyperlink ref="D21" r:id="rId56" xr:uid="{422A5ABA-5207-413E-8AB9-519FFDAF6F5B}"/>
+    <hyperlink ref="D33" r:id="rId57" xr:uid="{212731BE-F175-433A-B3EC-9FF5F2DD379D}"/>
+    <hyperlink ref="D35" r:id="rId58" xr:uid="{4821806A-42C3-41B1-95BA-6565E27746D3}"/>
+    <hyperlink ref="D114" r:id="rId59" xr:uid="{26F702F4-FFCB-4A60-98AC-25ACA1369B52}"/>
+    <hyperlink ref="D115" r:id="rId60" xr:uid="{2B5EFDE1-FDDC-41BA-9445-1E20C9FA9F77}"/>
+    <hyperlink ref="D116" r:id="rId61" xr:uid="{5EE39C29-E748-422C-80DC-FC62F1C4E86F}"/>
+    <hyperlink ref="D98" r:id="rId62" xr:uid="{744FE700-1057-4241-A8F2-DC20676D0379}"/>
+    <hyperlink ref="D54" r:id="rId63" xr:uid="{5209E450-662D-49CD-99CD-13B36DE868BB}"/>
+    <hyperlink ref="D56" r:id="rId64" xr:uid="{69B3DB96-FDCE-497B-91BC-3B512DC3C3C9}"/>
+    <hyperlink ref="D92" r:id="rId65" xr:uid="{6A7039FC-F20A-4C82-87FB-000A82BD23E0}"/>
+    <hyperlink ref="D41" r:id="rId66" xr:uid="{6D58228E-61E1-457F-87A2-E40D319FF1B0}"/>
+    <hyperlink ref="D32" r:id="rId67" xr:uid="{D0FB7B83-ECE2-42D8-8C7C-8D461873B588}"/>
+    <hyperlink ref="D57" r:id="rId68" xr:uid="{3E715B72-7C73-47E0-9B32-46BE1B4C319D}"/>
+    <hyperlink ref="D60" r:id="rId69" xr:uid="{80B654E3-81AD-42E1-8AD1-92EA2DDC2E65}"/>
+    <hyperlink ref="D94" r:id="rId70" xr:uid="{347B056B-7CC2-4708-99A4-D21C3DCF854D}"/>
+    <hyperlink ref="D117" r:id="rId71" xr:uid="{63B82EB8-4D9C-485D-8C7D-CA5A89ACBB65}"/>
+    <hyperlink ref="D118" r:id="rId72" xr:uid="{E4CD76E6-F55D-432B-A193-F2B38499C1C9}"/>
+    <hyperlink ref="D44" r:id="rId73" xr:uid="{E7CFB28D-DBFD-493F-9962-E0E7A4BCA1E4}"/>
+    <hyperlink ref="D91" r:id="rId74" xr:uid="{B6DD4280-AEA9-485D-BE53-4118DC8B809B}"/>
+    <hyperlink ref="D119" r:id="rId75" xr:uid="{0163AB49-89EF-4E06-B2AD-3F8D93F28D7A}"/>
+    <hyperlink ref="D58" r:id="rId76" xr:uid="{FCAB232B-2BFA-4393-B76E-2E39D504F86D}"/>
+    <hyperlink ref="D34" r:id="rId77" xr:uid="{B252310A-01BD-46B5-8CB5-888289FAF664}"/>
+    <hyperlink ref="D96" r:id="rId78" xr:uid="{DE962438-882B-4C2F-8C13-89A31F9D643B}"/>
+    <hyperlink ref="D37" r:id="rId79" xr:uid="{BA861862-F96D-401A-954E-A0850CCD9E3D}"/>
+    <hyperlink ref="D50" r:id="rId80" xr:uid="{54704756-AA0D-43EC-96B5-E90C04D2A1BE}"/>
+    <hyperlink ref="D79" r:id="rId81" xr:uid="{708DBE68-0007-4325-85E5-705BA65B4179}"/>
+    <hyperlink ref="D46" r:id="rId82" xr:uid="{6157D706-FCD6-4F63-9452-7BC2C76504E2}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{EA567DC7-68CA-4E48-B509-B4E2478DE8A7}"/>
+    <hyperlink ref="D49" r:id="rId84" xr:uid="{B5E3F969-78BE-4720-9D76-EECEA8494A6A}"/>
+    <hyperlink ref="E49" r:id="rId85" display="https://www.mcmod.cn/class/1036.html" xr:uid="{3D69840A-55D6-4B94-8862-31BCC6FB2283}"/>
+    <hyperlink ref="D120" r:id="rId86" xr:uid="{D93D234E-41CE-4384-8D5D-5DB413BD56BA}"/>
+    <hyperlink ref="D121" r:id="rId87" xr:uid="{31F64FD9-C445-47D6-BD14-C1460BDFCDA4}"/>
+    <hyperlink ref="D25" r:id="rId88" xr:uid="{A833CBC5-66A6-4DFA-9C01-C77E8C9A86CA}"/>
+    <hyperlink ref="D24" r:id="rId89" xr:uid="{B0AF4712-F55D-4A83-B8ED-113366301A3C}"/>
+    <hyperlink ref="D20" r:id="rId90" xr:uid="{495BEF2F-F1B2-4079-8235-44B377682399}"/>
+    <hyperlink ref="D59" r:id="rId91" xr:uid="{D5E2AA5D-F4DE-4AF4-B2B5-D2F78E28338D}"/>
+    <hyperlink ref="D38" r:id="rId92" xr:uid="{8C8F4436-73E2-4676-895A-35B0B89C3EB2}"/>
+    <hyperlink ref="D122" r:id="rId93" xr:uid="{93085BB0-C9F0-458B-B6F6-2C17A9BFD520}"/>
+    <hyperlink ref="D97" r:id="rId94" xr:uid="{3A5E9D1D-18F8-4A38-9A7B-4EF157156A41}"/>
+    <hyperlink ref="D29" r:id="rId95" xr:uid="{4628214F-9C7A-4834-964E-A738053E6572}"/>
+    <hyperlink ref="D72" r:id="rId96" xr:uid="{CEE2BA7D-D2B0-4663-BDC9-9CE2F94E130F}"/>
+    <hyperlink ref="D95" r:id="rId97" xr:uid="{749F30A7-DCB1-4943-A341-7CD494337DA8}"/>
+    <hyperlink ref="D123" r:id="rId98" xr:uid="{73AB1D1A-F0B6-4719-AFC2-0F722A554F28}"/>
+    <hyperlink ref="D82" r:id="rId99" xr:uid="{D6F2CD5F-5EDF-4A2F-A3FF-B0729069D0FB}"/>
+    <hyperlink ref="D23" r:id="rId100" xr:uid="{1F647F8A-D3D0-4693-869D-E13255287B77}"/>
+    <hyperlink ref="D89" r:id="rId101" xr:uid="{D0FF00EB-3E6E-41B6-BD8A-F24947C475C5}"/>
+    <hyperlink ref="D68" r:id="rId102" xr:uid="{460FF28D-7ABA-401B-9EAA-EE677ACDA6C0}"/>
+    <hyperlink ref="D69" r:id="rId103" xr:uid="{36EC0ABA-2C6C-42CE-BB23-C51B53E6AE58}"/>
+    <hyperlink ref="D73" r:id="rId104" xr:uid="{BE3776B9-E2C5-4701-9965-0BFA29D90DF7}"/>
+    <hyperlink ref="D124" r:id="rId105" xr:uid="{6D14AC4F-A2BE-4EC5-8D0E-CF0AB3D9ED31}"/>
+    <hyperlink ref="D7" r:id="rId106" xr:uid="{F16452CF-3DEF-4149-97ED-05BB16B9C710}"/>
+    <hyperlink ref="D14" r:id="rId107" xr:uid="{4E5DD223-6A2D-4922-B481-C18D24E6D388}"/>
+    <hyperlink ref="D99" r:id="rId108" xr:uid="{E04EFB54-5B54-4A67-89D1-AFFF5584CF0A}"/>
+    <hyperlink ref="D45" r:id="rId109" xr:uid="{AC175A39-67B1-4739-9FAD-187D5683B8D5}"/>
+    <hyperlink ref="D83" r:id="rId110" xr:uid="{4597FEB6-727B-4D16-B07E-DEFEBF2ACB00}"/>
+    <hyperlink ref="D78" r:id="rId111" xr:uid="{9BD21F77-E831-40EE-BD0A-8FA9D9F1CAFF}"/>
+    <hyperlink ref="D43" r:id="rId112" xr:uid="{C61DB2F8-2481-4000-BCD9-E4D69C145CF4}"/>
+    <hyperlink ref="D42" r:id="rId113" xr:uid="{79F0F800-5F38-4897-8B95-70E7A4A446DC}"/>
+    <hyperlink ref="D48" r:id="rId114" xr:uid="{59A3B211-786B-468D-9317-81F5D45693DB}"/>
+    <hyperlink ref="D5" r:id="rId115" xr:uid="{EEA22EBB-EEEF-4319-B43E-99DABAE7CE59}"/>
+    <hyperlink ref="D6" r:id="rId116" xr:uid="{427CADE0-3163-4E83-B171-D9AC9D8368F4}"/>
+    <hyperlink ref="D18" r:id="rId117" xr:uid="{297D1101-1F72-4AD8-8484-2A7B6B1D1E3A}"/>
+    <hyperlink ref="D16" r:id="rId118" xr:uid="{C6E47BFE-7D1C-4BB8-A21D-34D60A092BCE}"/>
+    <hyperlink ref="D125" r:id="rId119" xr:uid="{C5B4BF12-84DD-443F-8544-F39A2CE93550}"/>
+    <hyperlink ref="D85" r:id="rId120" xr:uid="{3C1DDBA7-C270-4ABC-AE18-78964AE18A81}"/>
+    <hyperlink ref="D76" r:id="rId121" xr:uid="{6A19BE75-C29E-4593-B559-3C64D7DA877A}"/>
+    <hyperlink ref="D55" r:id="rId122" xr:uid="{77F79D8C-7DC4-4BDD-A728-15AAAF6B2998}"/>
+    <hyperlink ref="D3" r:id="rId123" xr:uid="{2A2BC8AD-194F-4C63-AA5E-8024DD130545}"/>
+    <hyperlink ref="D53" r:id="rId124" xr:uid="{220DAA3B-F967-4F97-AE24-9C112849C404}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId125"/>
 </worksheet>
 </file>